--- a/images/bounded_run/correlation/corr_mat_bounded_run_1_to_2_outcomes_to_outcomes.xlsx
+++ b/images/bounded_run/correlation/corr_mat_bounded_run_1_to_2_outcomes_to_outcomes.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willemijn Tutuarima\Documents\study\Thesis\thesis_code\pydsol-core-main\src\images\bounded_run\correlation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4800FE5F-CB82-475F-88CF-8091A9CB689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -37,8 +43,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,24 +99,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -179,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,14 +408,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,142 +446,142 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.675968992248062</v>
-      </c>
-      <c r="D2">
-        <v>0.006972241607851778</v>
-      </c>
-      <c r="E2">
-        <v>-0.3728858104347396</v>
-      </c>
-      <c r="F2">
-        <v>-0.2680439551463017</v>
-      </c>
-      <c r="G2">
-        <v>0.3612654077549866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="B2" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.67596899224806195</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.9722416078517781E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-0.37288581043473962</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-0.26804395514630169</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.36126540775498661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.675968992248062</v>
-      </c>
-      <c r="C3">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="2">
+        <v>0.67596899224806195</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D3" s="2">
         <v>-0.1009683877285202</v>
       </c>
-      <c r="E3">
-        <v>-0.26546164343969</v>
-      </c>
-      <c r="F3">
-        <v>-0.1544222400553839</v>
-      </c>
-      <c r="G3">
-        <v>0.1510652348367885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="E3" s="2">
+        <v>-0.26546164343968998</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-0.15442224005538391</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.15106523483678849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.006972241607851779</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2">
+        <v>6.972241607851779E-3</v>
+      </c>
+      <c r="C4" s="2">
         <v>-0.1009683877285202</v>
       </c>
-      <c r="D4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.5349677419354838</v>
       </c>
-      <c r="F4">
-        <v>0.312516129032258</v>
-      </c>
-      <c r="G4">
-        <v>-0.296258064516129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="2">
+        <v>0.31251612903225801</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-0.29625806451612902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>-0.3728858104347396</v>
-      </c>
-      <c r="C5">
-        <v>-0.2654616434396899</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="2">
+        <v>-0.37288581043473962</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-0.26546164343968992</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.5349677419354838</v>
       </c>
-      <c r="E5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.6779354838709677</v>
-      </c>
-      <c r="G5">
-        <v>-0.5238709677419354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="E5" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.67793548387096769</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-0.52387096774193542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>-0.2680439551463017</v>
-      </c>
-      <c r="C6">
-        <v>-0.1544222400553839</v>
-      </c>
-      <c r="D6">
-        <v>0.312516129032258</v>
-      </c>
-      <c r="E6">
-        <v>0.6779354838709677</v>
-      </c>
-      <c r="F6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="G6">
-        <v>-0.384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="B6" s="2">
+        <v>-0.26804395514630169</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.15442224005538391</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.31251612903225801</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.67793548387096769</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.3612654077549866</v>
-      </c>
-      <c r="C7">
-        <v>0.1510652348367885</v>
-      </c>
-      <c r="D7">
-        <v>-0.296258064516129</v>
-      </c>
-      <c r="E7">
-        <v>-0.5238709677419354</v>
-      </c>
-      <c r="F7">
-        <v>-0.384</v>
-      </c>
-      <c r="G7">
-        <v>0.9999999999999999</v>
+      <c r="B7" s="2">
+        <v>0.36126540775498661</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.15106523483678849</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.29625806451612902</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-0.52387096774193542</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
